--- a/ig/ch-rad-order/observations-summary.xlsx
+++ b/ig/ch-rad-order/observations-summary.xlsx
@@ -62,7 +62,7 @@
     <t>null#8302-2</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1 (extensible)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ</t>
